--- a/Advaita_TDD/ExcelFiles/UserManagementData.xlsx
+++ b/Advaita_TDD/ExcelFiles/UserManagementData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>User Accounts</t>
   </si>
@@ -162,6 +162,63 @@
   </si>
   <si>
     <t>Nicolas Workflow Design</t>
+  </si>
+  <si>
+    <t>Hilpert Workflow Design</t>
+  </si>
+  <si>
+    <t>Larson Kohler</t>
+  </si>
+  <si>
+    <t>Terry Workflow Design</t>
+  </si>
+  <si>
+    <t>Tromp Terry</t>
+  </si>
+  <si>
+    <t>Stroman Workflow Design</t>
+  </si>
+  <si>
+    <t>Donnelly Reichel</t>
+  </si>
+  <si>
+    <t>Ferry Workflow Design</t>
+  </si>
+  <si>
+    <t>Hackett Bartoletti</t>
+  </si>
+  <si>
+    <t>Gutmann Workflow Design</t>
+  </si>
+  <si>
+    <t>Borer Graham</t>
+  </si>
+  <si>
+    <t>Harvey Workflow Design</t>
+  </si>
+  <si>
+    <t>Gaylord Zieme</t>
+  </si>
+  <si>
+    <t>Jerde User Setup</t>
+  </si>
+  <si>
+    <t>Jerde User Setup UA</t>
+  </si>
+  <si>
+    <t>Gaylord Zieme UA</t>
+  </si>
+  <si>
+    <t>Hoppe Workflow Design</t>
+  </si>
+  <si>
+    <t>Runolfsson Welch</t>
+  </si>
+  <si>
+    <t>Jaskolski Workflow Design</t>
+  </si>
+  <si>
+    <t>Tillman Boyer</t>
   </si>
 </sst>
 </file>
@@ -523,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B5"/>
@@ -655,6 +712,46 @@
         <v>45</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -662,7 +759,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -803,6 +900,46 @@
         <v>46</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Advaita_TDD/ExcelFiles/UserManagementData.xlsx
+++ b/Advaita_TDD/ExcelFiles/UserManagementData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>User Accounts</t>
   </si>
@@ -219,6 +219,63 @@
   </si>
   <si>
     <t>Tillman Boyer</t>
+  </si>
+  <si>
+    <t>Kautzer Workflow Design</t>
+  </si>
+  <si>
+    <t>Schneider Conroy</t>
+  </si>
+  <si>
+    <t>Bruen Workflow Design</t>
+  </si>
+  <si>
+    <t>Lowe Baumbach</t>
+  </si>
+  <si>
+    <t>Skiles Workflow Design</t>
+  </si>
+  <si>
+    <t>Rosenbaum Vandervort</t>
+  </si>
+  <si>
+    <t>Kuhlman Workflow Design</t>
+  </si>
+  <si>
+    <t>Kreiger Hodkiewicz</t>
+  </si>
+  <si>
+    <t>Grady Workflow Design</t>
+  </si>
+  <si>
+    <t>Hane Wiza</t>
+  </si>
+  <si>
+    <t>Johns Workflow Design</t>
+  </si>
+  <si>
+    <t>OKon McClure</t>
+  </si>
+  <si>
+    <t>Kovacek Workflow Design</t>
+  </si>
+  <si>
+    <t>Lehner Heidenreich</t>
+  </si>
+  <si>
+    <t>Rowe Workflow Design</t>
+  </si>
+  <si>
+    <t>Harris Schowalter</t>
+  </si>
+  <si>
+    <t>Kuhn User Setup</t>
+  </si>
+  <si>
+    <t>Kuhn User Setup UA</t>
+  </si>
+  <si>
+    <t>Harris Schowalter UA</t>
   </si>
 </sst>
 </file>
@@ -580,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B5"/>
@@ -752,6 +809,56 @@
         <v>65</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -759,7 +866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -940,6 +1047,56 @@
         <v>64</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Advaita_TDD/ExcelFiles/UserManagementData.xlsx
+++ b/Advaita_TDD/ExcelFiles/UserManagementData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>User Accounts</t>
   </si>
@@ -276,6 +276,54 @@
   </si>
   <si>
     <t>Harris Schowalter UA</t>
+  </si>
+  <si>
+    <t>Mills Workflow Design</t>
+  </si>
+  <si>
+    <t>Veum Kuhn</t>
+  </si>
+  <si>
+    <t>Turner Workflow Design</t>
+  </si>
+  <si>
+    <t>Parker Ferry</t>
+  </si>
+  <si>
+    <t>Spencer Workflow Design</t>
+  </si>
+  <si>
+    <t>Larson Erdman</t>
+  </si>
+  <si>
+    <t>Kuhic Workflow Design</t>
+  </si>
+  <si>
+    <t>Mayert Gaylord</t>
+  </si>
+  <si>
+    <t>Kub Workflow Design</t>
+  </si>
+  <si>
+    <t>Herzog OConnell</t>
+  </si>
+  <si>
+    <t>Parisian Workflow Design</t>
+  </si>
+  <si>
+    <t>Bernhard Zboncak</t>
+  </si>
+  <si>
+    <t>McDermott Workflow Design</t>
+  </si>
+  <si>
+    <t>Mueller Veum</t>
+  </si>
+  <si>
+    <t>Turcotte Workflow Design</t>
+  </si>
+  <si>
+    <t>Grant Sipes</t>
   </si>
 </sst>
 </file>
@@ -637,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B5"/>
@@ -859,6 +907,46 @@
         <v>84</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -866,7 +954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1097,6 +1185,46 @@
         <v>83</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
